--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/10/seed1/result_data_RandomForest.xlsx
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.125</v>
+        <v>-21.1303</v>
       </c>
       <c r="B4" t="n">
-        <v>4.664800000000002</v>
+        <v>4.627600000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.984599999999999</v>
+        <v>-6.985700000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0842</v>
+        <v>5.217199999999999</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.58270000000001</v>
+        <v>-21.67460000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.918799999999999</v>
+        <v>4.922599999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.678100000000008</v>
+        <v>-8.540800000000008</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53890000000002</v>
+        <v>-21.54000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.812100000000004</v>
+        <v>4.825800000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.437299999999995</v>
+        <v>-8.421599999999991</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
